--- a/KVs.xlsx
+++ b/KVs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="14115" windowHeight="6975"/>
@@ -11,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -78,14 +78,14 @@
     <t>01xx</t>
   </si>
   <si>
-    <t>0x0x</t>
+    <t>[</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,7 +544,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1790700" y="0"/>
+          <a:off x="3524250" y="0"/>
           <a:ext cx="161925" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -920,7 +920,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -955,7 +954,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1131,19 +1129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="3.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="O13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1425,24 +1423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KVs.xlsx
+++ b/KVs.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="14115" windowHeight="6975"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="14115" windowHeight="6975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="6 Variablen" sheetId="2" r:id="rId2"/>
+    <sheet name="8 Variablen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="51">
   <si>
     <t>00</t>
   </si>
@@ -79,13 +79,183 @@
   </si>
   <si>
     <t>0x0x</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>x01x01</t>
+  </si>
+  <si>
+    <t>xx01 xx01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +263,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,11 +315,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,11 +447,96 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1134,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1426,24 +1821,1541 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="9" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
+        <f>BIN2DEC($A2&amp;B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:I9" si="0">BIN2DEC($A2&amp;C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B9" si="1">BIN2DEC($A3&amp;B$1)</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5">
+        <f>BIN2DEC($A2&amp;B$1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:Q17" si="0">BIN2DEC($A2&amp;C$1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B17" si="1">BIN2DEC($A3&amp;B$1)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="16">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>"$A2&amp;B$1 = ""00000000"""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>